--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.0225488412269357</v>
+        <v>4.0225488404498755</v>
       </c>
       <c r="C2">
-        <v>4.1039803632246494</v>
+        <v>4.1039803632210177</v>
       </c>
       <c r="D2">
-        <v>3.9325339604443741</v>
+        <v>3.9325339633208438</v>
       </c>
       <c r="E2">
-        <v>1.6329933636585956</v>
+        <v>1.6329933657309086</v>
       </c>
       <c r="F2">
-        <v>3.8300982184295318</v>
+        <v>3.8300982221218791</v>
       </c>
       <c r="G2">
-        <v>6.3478807905991284</v>
+        <v>6.3478807915859772</v>
       </c>
       <c r="H2">
-        <v>2.2380811350437546</v>
+        <v>2.2380811363405488</v>
       </c>
       <c r="I2">
-        <v>3.56226404446977</v>
+        <v>3.5622640450912977</v>
       </c>
       <c r="J2">
-        <v>4.4004799160472761</v>
+        <v>4.4004799182684611</v>
       </c>
       <c r="K2">
-        <v>4.8281507628559783</v>
+        <v>4.8281507651691706</v>
       </c>
       <c r="L2">
-        <v>6.4350107019388867</v>
+        <v>6.4350107012168465</v>
       </c>
       <c r="M2">
-        <v>6.466792940508868</v>
+        <v>6.4667929399308042</v>
       </c>
       <c r="N2">
-        <v>3.7792816798443658</v>
+        <v>3.7792816800454099</v>
       </c>
       <c r="O2">
-        <v>2.3932048900534406</v>
+        <v>2.3932048940378126</v>
       </c>
       <c r="P2">
-        <v>3.4865471194247424</v>
+        <v>3.4865471191733701</v>
       </c>
       <c r="Q2">
-        <v>7.4813861398655268</v>
+        <v>7.481386140923556</v>
       </c>
       <c r="R2">
-        <v>5.0322458495209101</v>
+        <v>5.0322458536475985</v>
       </c>
       <c r="S2">
-        <v>2.4107195625858049</v>
+        <v>2.4107195592846598</v>
       </c>
       <c r="T2">
-        <v>2.223727503726832</v>
+        <v>2.2237275021993317</v>
       </c>
       <c r="U2">
-        <v>5.9888104892324838</v>
+        <v>5.9888104942235598</v>
       </c>
       <c r="V2">
-        <v>3.8235458578500983</v>
+        <v>3.8235458606434007</v>
       </c>
       <c r="W2">
-        <v>5.1016998070545885</v>
+        <v>5.1016998088334393</v>
       </c>
       <c r="X2">
-        <v>5.6408829464773973</v>
+        <v>5.6408829468143367</v>
       </c>
       <c r="Y2">
-        <v>1.3049065682446954</v>
+        <v>1.3049065723054163</v>
       </c>
       <c r="Z2">
-        <v>3.941250876398561</v>
+        <v>3.9412508812593652</v>
       </c>
       <c r="AA2">
-        <v>2.6637755606900364</v>
+        <v>2.663775564321671</v>
       </c>
       <c r="AB2">
-        <v>3.9229741367581603</v>
+        <v>3.9229741432656353</v>
       </c>
       <c r="AC2">
-        <v>5.6838044896564055</v>
+        <v>5.6838044927085125</v>
       </c>
       <c r="AD2">
-        <v>1.2248704881671069</v>
+        <v>1.2248704960459968</v>
       </c>
       <c r="AE2">
-        <v>4.1832250970546481</v>
+        <v>4.1832251006695387</v>
       </c>
       <c r="AF2">
-        <v>3.7566725978345024</v>
+        <v>3.7566726009741203</v>
       </c>
       <c r="AG2">
-        <v>2.2941431197587665</v>
+        <v>2.2941431232273839</v>
       </c>
       <c r="AH2">
-        <v>2.551159484697576</v>
+        <v>2.5511594879874293</v>
       </c>
       <c r="AI2">
-        <v>4.5185477799296967</v>
+        <v>4.5185477856175851</v>
       </c>
       <c r="AJ2">
-        <v>2.9803923119414337</v>
+        <v>2.9803923147389098</v>
       </c>
       <c r="AK2">
-        <v>3.8557391490914581</v>
+        <v>3.8557391520867097</v>
       </c>
       <c r="AL2">
-        <v>6.4772122509132961</v>
+        <v>6.4772122537453551</v>
       </c>
       <c r="AM2">
-        <v>2.6298241857566396</v>
+        <v>2.6298241882695685</v>
       </c>
       <c r="AN2">
-        <v>3.557941373668859</v>
+        <v>3.5579413788966008</v>
       </c>
       <c r="AO2">
-        <v>2.1196192244119594</v>
+        <v>2.1196192264362845</v>
       </c>
       <c r="AP2">
-        <v>2.6218223442994817</v>
+        <v>2.6218223489946069</v>
       </c>
       <c r="AQ2">
-        <v>4.8606859924161085</v>
+        <v>4.8606859952815755</v>
       </c>
       <c r="AR2">
-        <v>2.2914375836356737</v>
+        <v>2.2914375856277966</v>
       </c>
       <c r="AS2">
-        <v>2.0942085940731632</v>
+        <v>2.0942085982194776</v>
       </c>
       <c r="AT2">
-        <v>4.1500605875278511</v>
+        <v>4.1500605918114211</v>
       </c>
       <c r="AU2">
-        <v>1.9993451807437876</v>
+        <v>1.9993451863822509</v>
       </c>
       <c r="AV2">
-        <v>2.8511029932585359</v>
+        <v>2.8511029985997585</v>
       </c>
       <c r="AW2">
-        <v>4.4982797081878418</v>
+        <v>4.4982797127668164</v>
       </c>
       <c r="AX2">
-        <v>2.7126217263300227</v>
+        <v>2.7126217320943744</v>
       </c>
       <c r="AY2">
-        <v>1.4143664024969591</v>
+        <v>1.414366407095571</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.3757860940472808</v>
+        <v>4.3757860962430657</v>
       </c>
       <c r="C3">
-        <v>4.1954722940807905</v>
+        <v>4.1954722981975587</v>
       </c>
       <c r="D3">
-        <v>3.0303985770268436</v>
+        <v>3.0303985845397436</v>
       </c>
       <c r="E3">
-        <v>2.7616583289982621</v>
+        <v>2.761658332925494</v>
       </c>
       <c r="F3">
-        <v>3.6031613494672285</v>
+        <v>3.6031613526630659</v>
       </c>
       <c r="G3">
-        <v>3.1912869969840432</v>
+        <v>3.1912869990158055</v>
       </c>
       <c r="H3">
-        <v>5.8255440435080201</v>
+        <v>5.8255440453789999</v>
       </c>
       <c r="I3">
-        <v>4.9063749447849005</v>
+        <v>4.9063749464567614</v>
       </c>
       <c r="J3">
-        <v>3.5370741132962888</v>
+        <v>3.537074114536777</v>
       </c>
       <c r="K3">
-        <v>-1.3906472201328541</v>
+        <v>-1.3906472199815154</v>
       </c>
       <c r="L3">
-        <v>3.4007546213466937</v>
+        <v>3.4007546236397515</v>
       </c>
       <c r="M3">
-        <v>5.4559999475208167</v>
+        <v>5.4560490449139163</v>
       </c>
       <c r="N3">
-        <v>3.8899910460604064</v>
+        <v>3.8899910489589478</v>
       </c>
       <c r="O3">
-        <v>6.6321615497052528</v>
+        <v>6.6321615512992178</v>
       </c>
       <c r="P3">
-        <v>3.4254161978258564</v>
+        <v>3.4254162041567144</v>
       </c>
       <c r="Q3">
-        <v>3.2944595788149718</v>
+        <v>3.2944595798684952</v>
       </c>
       <c r="R3">
-        <v>5.7505152802114665</v>
+        <v>5.7505152824675134</v>
       </c>
       <c r="S3">
-        <v>2.5703371424689725</v>
+        <v>2.5703371432753617</v>
       </c>
       <c r="T3">
-        <v>3.0051579876114478</v>
+        <v>3.0051579905829828</v>
       </c>
       <c r="U3">
-        <v>3.8902324982481051</v>
+        <v>3.8902325011914289</v>
       </c>
       <c r="V3">
-        <v>3.0022902689101421</v>
+        <v>3.002290270856562</v>
       </c>
       <c r="W3">
-        <v>4.1954699284735444</v>
+        <v>4.1954699306133447</v>
       </c>
       <c r="X3">
-        <v>6.4979689954704201</v>
+        <v>6.497968997976673</v>
       </c>
       <c r="Y3">
-        <v>0.79924307393661487</v>
+        <v>0.7992430799495347</v>
       </c>
       <c r="Z3">
-        <v>2.2020684097326648</v>
+        <v>2.2020684151150856</v>
       </c>
       <c r="AA3">
-        <v>2.5160999447703047</v>
+        <v>2.5160999487226081</v>
       </c>
       <c r="AB3">
-        <v>2.5439449924344775</v>
+        <v>2.543944997972126</v>
       </c>
       <c r="AC3">
-        <v>3.695355797955127</v>
+        <v>3.6953558009542107</v>
       </c>
       <c r="AD3">
-        <v>2.3893538758652522</v>
+        <v>2.3893538801259528</v>
       </c>
       <c r="AE3">
-        <v>2.1650953743748484</v>
+        <v>2.1650953762366902</v>
       </c>
       <c r="AF3">
-        <v>4.3992929700733114</v>
+        <v>4.3992929741342222</v>
       </c>
       <c r="AG3">
-        <v>3.3741771723601932</v>
+        <v>3.3741771747545544</v>
       </c>
       <c r="AH3">
-        <v>4.13967539053015</v>
+        <v>4.1396753934144819</v>
       </c>
       <c r="AI3">
-        <v>-1.2847628901674468</v>
+        <v>-1.2847628844031529</v>
       </c>
       <c r="AJ3">
-        <v>2.6935752596717357</v>
+        <v>2.6935752613985575</v>
       </c>
       <c r="AK3">
-        <v>3.7505795010339833</v>
+        <v>3.7505795061123011</v>
       </c>
       <c r="AL3">
-        <v>3.6555860201577568</v>
+        <v>3.6555860252056531</v>
       </c>
       <c r="AM3">
-        <v>2.7694101430429647</v>
+        <v>2.7694101486199005</v>
       </c>
       <c r="AN3">
-        <v>6.964336421553857</v>
+        <v>6.9643364241134789</v>
       </c>
       <c r="AO3">
-        <v>3.0990762451164287</v>
+        <v>3.099076254822025</v>
       </c>
       <c r="AP3">
-        <v>3.9818164034486387</v>
+        <v>3.9818164070298825</v>
       </c>
       <c r="AQ3">
-        <v>3.0177834519086293</v>
+        <v>3.0177834571883597</v>
       </c>
       <c r="AR3">
-        <v>2.2557962278709534</v>
+        <v>2.2557962306956125</v>
       </c>
       <c r="AS3">
-        <v>3.6350421027161177</v>
+        <v>3.635042105572234</v>
       </c>
       <c r="AT3">
-        <v>2.2247980382492614</v>
+        <v>2.2247980449572511</v>
       </c>
       <c r="AU3">
-        <v>3.2614988338834605</v>
+        <v>3.2614988340690045</v>
       </c>
       <c r="AV3">
-        <v>3.315304863072051</v>
+        <v>3.3153048672874439</v>
       </c>
       <c r="AW3">
-        <v>5.0252814622796755</v>
+        <v>5.0252814664783729</v>
       </c>
       <c r="AX3">
-        <v>4.8525085477512748</v>
+        <v>4.8525085515313311</v>
       </c>
       <c r="AY3">
-        <v>0.83480546708682679</v>
+        <v>0.8348054738693087</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>4.0225488404498755</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4.1039803632210177</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.9325339633208438</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.6329933657309086</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.8300982221218791</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>6.3478807915859772</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.2380811363405488</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3.5622640450912977</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.4004799182684611</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.8281507651691706</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.4350107012168465</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>6.4667929399308042</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>3.7792816800454099</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.3932048940378126</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.4865471191733701</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>7.481386140923556</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5.0322458536475985</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>2.4107195592846598</v>
+        <v>3.7238451575487206</v>
       </c>
       <c r="T2">
         <v>2.2237275021993317</v>
@@ -588,55 +477,55 @@
         <v>3.9412508812593652</v>
       </c>
       <c r="AA2">
-        <v>2.663775564321671</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>3.9229741432656353</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>5.6838044927085125</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.2248704960459968</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>4.1832251006695387</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.7566726009741203</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.2941431232273839</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.5511594879874293</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>4.5185477856175851</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.9803923147389098</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>3.8557391520867097</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>6.4772122537453551</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.6298241882695685</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.5579413788966008</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>2.1196192264362845</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.6218223489946069</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>4.8606859952815755</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>2.2914375856277966</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>4.3757860962430657</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.1954722981975587</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.0303985845397436</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.761658332925494</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3.6031613526630659</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>3.1912869990158055</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.8255440453789999</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.9063749464567614</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.537074114536777</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-1.3906472199815154</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3.4007546236397515</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>5.4560490449139163</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3.8899910489589478</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>6.6321615512992178</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.4254162041567144</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>3.2944595798684952</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>5.7505152824675134</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>2.5703371432753617</v>
@@ -743,55 +629,55 @@
         <v>2.2020684151150856</v>
       </c>
       <c r="AA3">
-        <v>2.5160999487226081</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.543944997972126</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>3.6953558009542107</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.3893538801259528</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>2.1650953762366902</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.3992929741342222</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>3.3741771747545544</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>4.1396753934144819</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-1.2847628844031529</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2.6935752613985575</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.7505795061123011</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>3.6555860252056531</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.7694101486199005</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>6.9643364241134789</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>3.099076254822025</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>3.9818164070298825</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3.0177834571883597</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>2.2557962306956125</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>4.0225488412269357</v>
-      </c>
       <c r="C2">
-        <v>4.7568931151586433</v>
-      </c>
-      <c r="D2">
-        <v>3.9325339604443741</v>
-      </c>
-      <c r="E2">
-        <v>1.6329933636585956</v>
+        <v>5.0322458536475985</v>
       </c>
       <c r="F2">
         <v>3.8300982184295318</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.3757860940472808</v>
+        <v>5.3604036204009624</v>
       </c>
       <c r="C3">
-        <v>4.1954722940807905</v>
+        <v>5.7505152824675134</v>
       </c>
       <c r="D3">
-        <v>3.0303985770268436</v>
+        <v>6.8392903583500395</v>
       </c>
       <c r="E3">
-        <v>2.7616583289982621</v>
+        <v>2.5907347027081613</v>
       </c>
       <c r="F3">
         <v>3.6031613494672285</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.0225488412269357</v>
-      </c>
-      <c r="C2">
-        <v>4.7568931151586433</v>
+        <v>4.0460026821195827</v>
       </c>
       <c r="D2">
-        <v>3.9325339604443741</v>
-      </c>
-      <c r="E2">
-        <v>1.6329933636585956</v>
+        <v>2.6298241882695685</v>
       </c>
       <c r="F2">
         <v>3.8300982184295318</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.3757860940472808</v>
+        <v>3.8899910489589478</v>
       </c>
       <c r="C3">
-        <v>4.1954722940807905</v>
+        <v>5.3604036204009624</v>
       </c>
       <c r="D3">
-        <v>3.0303985770268436</v>
+        <v>2.7694101486199005</v>
       </c>
       <c r="E3">
-        <v>1.1921119868032199</v>
+        <v>6.8392903583500395</v>
       </c>
       <c r="F3">
         <v>3.6031613494672285</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>4.0225488404498755</v>
+      </c>
+      <c r="C2">
+        <v>4.7568931166707529</v>
+      </c>
+      <c r="D2">
+        <v>3.9325339633208438</v>
+      </c>
+      <c r="E2">
+        <v>1.6329933657309086</v>
+      </c>
+      <c r="F2">
+        <v>3.8300982221218791</v>
+      </c>
+      <c r="G2">
+        <v>5.6808522420590757</v>
+      </c>
+      <c r="H2">
+        <v>2.2380811363405488</v>
+      </c>
+      <c r="I2">
+        <v>2.8606185611432888</v>
+      </c>
+      <c r="J2">
+        <v>4.4004799182684611</v>
+      </c>
+      <c r="K2">
+        <v>4.8281507651691706</v>
+      </c>
+      <c r="L2">
+        <v>6.5696820720897735</v>
+      </c>
+      <c r="M2">
+        <v>5.1175236262264443</v>
+      </c>
+      <c r="N2">
         <v>4.0460026821195827</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>3.2882213395407018</v>
+      </c>
+      <c r="Q2">
+        <v>7.481386140923556</v>
+      </c>
+      <c r="R2">
+        <v>5.0322458536475985</v>
+      </c>
+      <c r="T2">
+        <v>2.844527194650293</v>
+      </c>
+      <c r="U2">
+        <v>5.9888104942235598</v>
+      </c>
+      <c r="V2">
+        <v>3.259190185969624</v>
+      </c>
+      <c r="W2">
+        <v>5.1016998088334393</v>
+      </c>
+      <c r="X2">
+        <v>5.6408829468143367</v>
+      </c>
+      <c r="Y2">
+        <v>1.3049065723054163</v>
+      </c>
+      <c r="Z2">
+        <v>3.9412508812593652</v>
+      </c>
+      <c r="AA2">
+        <v>2.663775564321671</v>
+      </c>
+      <c r="AB2">
+        <v>3.9229741432656353</v>
+      </c>
+      <c r="AC2">
+        <v>5.6838044927085125</v>
+      </c>
+      <c r="AD2">
+        <v>1.2248704960459968</v>
+      </c>
+      <c r="AE2">
+        <v>4.1832251006695387</v>
+      </c>
+      <c r="AF2">
+        <v>3.7566726009741203</v>
+      </c>
+      <c r="AG2">
+        <v>2.2941431232273839</v>
+      </c>
+      <c r="AH2">
+        <v>2.5511594879874293</v>
+      </c>
+      <c r="AI2">
+        <v>4.5185477856175851</v>
+      </c>
+      <c r="AJ2">
+        <v>2.9803923147389098</v>
+      </c>
+      <c r="AK2">
+        <v>3.8557391520867097</v>
+      </c>
+      <c r="AL2">
+        <v>6.4772122537453551</v>
+      </c>
+      <c r="AM2">
         <v>2.6298241882695685</v>
       </c>
-      <c r="F2">
-        <v>3.8300982184295318</v>
-      </c>
-      <c r="G2">
-        <v>5.6808522421094985</v>
-      </c>
-      <c r="H2">
-        <v>2.2380811350437546</v>
-      </c>
-      <c r="I2">
-        <v>2.8606185580459829</v>
-      </c>
-      <c r="J2">
-        <v>4.4004799160472761</v>
-      </c>
-      <c r="K2">
-        <v>4.8281507628559783</v>
-      </c>
-      <c r="L2">
-        <v>6.5696820702752525</v>
-      </c>
-      <c r="M2">
-        <v>5.1175236282425232</v>
-      </c>
-      <c r="N2">
-        <v>4.0460026807575016</v>
-      </c>
-      <c r="P2">
-        <v>3.2882213400867459</v>
-      </c>
-      <c r="Q2">
-        <v>7.4813861398655268</v>
-      </c>
-      <c r="R2">
-        <v>5.0322458495209101</v>
-      </c>
-      <c r="T2">
-        <v>2.8445271932909972</v>
-      </c>
-      <c r="U2">
-        <v>5.9888104892324838</v>
-      </c>
-      <c r="V2">
-        <v>3.2591901815685116</v>
-      </c>
-      <c r="W2">
-        <v>5.1016998070545885</v>
-      </c>
-      <c r="X2">
-        <v>5.6408829464773973</v>
-      </c>
-      <c r="Y2">
-        <v>1.3049065682446954</v>
-      </c>
-      <c r="Z2">
-        <v>3.941250876398561</v>
-      </c>
-      <c r="AA2">
-        <v>2.6637755606900364</v>
-      </c>
-      <c r="AB2">
-        <v>3.9229741367581603</v>
-      </c>
-      <c r="AC2">
-        <v>5.6838044896564055</v>
-      </c>
-      <c r="AD2">
-        <v>1.2248704881671069</v>
-      </c>
-      <c r="AE2">
-        <v>4.1832250970546481</v>
-      </c>
-      <c r="AF2">
-        <v>3.7566725978345024</v>
-      </c>
-      <c r="AG2">
-        <v>2.2941431197587665</v>
-      </c>
-      <c r="AH2">
-        <v>2.551159484697576</v>
-      </c>
-      <c r="AI2">
-        <v>4.5185477799296967</v>
-      </c>
-      <c r="AJ2">
-        <v>2.9803923119414337</v>
-      </c>
-      <c r="AK2">
-        <v>3.8557391490914581</v>
-      </c>
-      <c r="AL2">
-        <v>6.4772122509132961</v>
-      </c>
-      <c r="AM2">
-        <v>2.6298241857566396</v>
-      </c>
       <c r="AO2">
-        <v>2.1196192244119594</v>
+        <v>2.1196192264362845</v>
       </c>
       <c r="AP2">
-        <v>2.1857831816956081</v>
+        <v>2.1857831853008562</v>
       </c>
       <c r="AR2">
-        <v>2.2914375836356737</v>
+        <v>2.2914375856277966</v>
       </c>
       <c r="AS2">
-        <v>2.0942085940731632</v>
+        <v>2.0942085982194776</v>
       </c>
       <c r="AT2">
-        <v>4.1500605875278511</v>
+        <v>4.1500605918114211</v>
       </c>
       <c r="AU2">
-        <v>3.0753008257970063</v>
+        <v>3.0753008284745702</v>
       </c>
       <c r="AV2">
-        <v>2.8511029932585359</v>
+        <v>2.8511029985997585</v>
       </c>
       <c r="AW2">
-        <v>4.4982797081878418</v>
+        <v>4.4982797127668164</v>
       </c>
       <c r="AX2">
-        <v>2.7126217263300227</v>
+        <v>2.7126217320943744</v>
       </c>
       <c r="AY2">
-        <v>1.4143664024969591</v>
+        <v>1.414366407095571</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>4.3757860962430657</v>
+      </c>
+      <c r="C3">
+        <v>4.1954722981975587</v>
+      </c>
+      <c r="D3">
+        <v>3.0303985845397436</v>
+      </c>
+      <c r="E3">
+        <v>1.1921119913576572</v>
+      </c>
+      <c r="F3">
+        <v>3.6031613526630659</v>
+      </c>
+      <c r="G3">
+        <v>3.1912869990158055</v>
+      </c>
+      <c r="H3">
+        <v>5.8255440453789999</v>
+      </c>
+      <c r="I3">
+        <v>4.9063749464567614</v>
+      </c>
+      <c r="J3">
+        <v>3.537074114536777</v>
+      </c>
+      <c r="K3">
+        <v>-0.5723602421308347</v>
+      </c>
+      <c r="L3">
+        <v>3.4007546236397515</v>
+      </c>
+      <c r="M3">
+        <v>6.5017844335103883</v>
+      </c>
+      <c r="N3">
         <v>3.8899910489589478</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>5.3604036204009624</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>3.4254162041567144</v>
+      </c>
+      <c r="Q3">
+        <v>3.2944595798684952</v>
+      </c>
+      <c r="R3">
+        <v>5.7505152824675134</v>
+      </c>
+      <c r="S3">
+        <v>2.5703371432753617</v>
+      </c>
+      <c r="T3">
+        <v>3.0051579905829828</v>
+      </c>
+      <c r="U3">
+        <v>3.8902325011914289</v>
+      </c>
+      <c r="V3">
+        <v>2.6594139325860597</v>
+      </c>
+      <c r="W3">
+        <v>4.1954699306133447</v>
+      </c>
+      <c r="X3">
+        <v>6.497968997976673</v>
+      </c>
+      <c r="Y3">
+        <v>0.7992430799495347</v>
+      </c>
+      <c r="Z3">
+        <v>2.2020684151150856</v>
+      </c>
+      <c r="AA3">
+        <v>2.5160999487226081</v>
+      </c>
+      <c r="AB3">
+        <v>2.543944997972126</v>
+      </c>
+      <c r="AC3">
+        <v>3.6953558009542107</v>
+      </c>
+      <c r="AD3">
+        <v>2.3893538801259528</v>
+      </c>
+      <c r="AE3">
+        <v>2.1650953762366902</v>
+      </c>
+      <c r="AF3">
+        <v>4.3992929741342222</v>
+      </c>
+      <c r="AG3">
+        <v>3.3741771747545544</v>
+      </c>
+      <c r="AH3">
+        <v>4.1396753934144819</v>
+      </c>
+      <c r="AI3">
+        <v>3.9466798410440629</v>
+      </c>
+      <c r="AJ3">
+        <v>2.6935752613985575</v>
+      </c>
+      <c r="AK3">
+        <v>3.7505795061123011</v>
+      </c>
+      <c r="AL3">
+        <v>3.6555860252056531</v>
+      </c>
+      <c r="AM3">
         <v>2.7694101486199005</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>6.8392903583500395</v>
       </c>
-      <c r="F3">
-        <v>3.6031613494672285</v>
-      </c>
-      <c r="G3">
-        <v>3.1912869969840432</v>
-      </c>
-      <c r="H3">
-        <v>5.8255440435080201</v>
-      </c>
-      <c r="I3">
-        <v>4.9063749447849005</v>
-      </c>
-      <c r="J3">
-        <v>3.5370741132962888</v>
-      </c>
-      <c r="K3">
-        <v>-0.5723602441980119</v>
-      </c>
-      <c r="L3">
-        <v>3.4007546213466937</v>
-      </c>
-      <c r="M3">
-        <v>6.5017515591510904</v>
-      </c>
-      <c r="N3">
-        <v>3.8899910460604064</v>
-      </c>
-      <c r="O3">
-        <v>5.360403617728033</v>
-      </c>
-      <c r="P3">
-        <v>3.4254161978258564</v>
-      </c>
-      <c r="Q3">
-        <v>3.2944595788149718</v>
-      </c>
-      <c r="R3">
-        <v>5.7505152802114665</v>
-      </c>
-      <c r="S3">
-        <v>2.5703371424689725</v>
-      </c>
-      <c r="T3">
-        <v>3.0051579876114478</v>
-      </c>
-      <c r="U3">
-        <v>3.8902324982481051</v>
-      </c>
-      <c r="V3">
-        <v>2.6594139283068214</v>
-      </c>
-      <c r="W3">
-        <v>4.1954699284735444</v>
-      </c>
-      <c r="X3">
-        <v>6.4979689954704201</v>
-      </c>
-      <c r="Y3">
-        <v>0.79924307393661487</v>
-      </c>
-      <c r="Z3">
-        <v>2.2020684097326648</v>
-      </c>
-      <c r="AA3">
-        <v>2.5160999447703047</v>
-      </c>
-      <c r="AB3">
-        <v>2.5439449924344775</v>
-      </c>
-      <c r="AC3">
-        <v>3.695355797955127</v>
-      </c>
-      <c r="AD3">
-        <v>2.3893538758652522</v>
-      </c>
-      <c r="AE3">
-        <v>2.1650953743748484</v>
-      </c>
-      <c r="AF3">
-        <v>4.3992929700733114</v>
-      </c>
-      <c r="AG3">
-        <v>3.3741771723601932</v>
-      </c>
-      <c r="AH3">
-        <v>4.13967539053015</v>
-      </c>
-      <c r="AI3">
-        <v>3.9466798349531818</v>
-      </c>
-      <c r="AJ3">
-        <v>2.6935752596717357</v>
-      </c>
-      <c r="AK3">
-        <v>3.7505795010339833</v>
-      </c>
-      <c r="AL3">
-        <v>3.6555860201577568</v>
-      </c>
-      <c r="AM3">
-        <v>2.7694101430429647</v>
-      </c>
-      <c r="AN3">
-        <v>6.8392903549805011</v>
-      </c>
       <c r="AO3">
-        <v>3.0990762451164287</v>
+        <v>3.099076254822025</v>
       </c>
       <c r="AP3">
-        <v>3.9818164034486387</v>
+        <v>3.9818164070298825</v>
       </c>
       <c r="AQ3">
-        <v>2.5907347017161948</v>
+        <v>2.5907347027081613</v>
       </c>
       <c r="AR3">
-        <v>2.2557962278709534</v>
+        <v>2.2557962306956125</v>
       </c>
       <c r="AS3">
-        <v>3.6350421027161177</v>
+        <v>3.635042105572234</v>
       </c>
       <c r="AT3">
-        <v>2.2247980382492614</v>
+        <v>2.2247980449572511</v>
       </c>
       <c r="AU3">
-        <v>3.1423346204097822</v>
+        <v>3.1423346169114152</v>
       </c>
       <c r="AV3">
-        <v>3.315304863072051</v>
+        <v>3.3153048672874439</v>
       </c>
       <c r="AW3">
-        <v>5.0252814622796755</v>
+        <v>5.0252814664783729</v>
       </c>
       <c r="AX3">
-        <v>4.8525085477512748</v>
+        <v>4.8525085515313311</v>
       </c>
       <c r="AY3">
-        <v>0.83480546708682679</v>
+        <v>0.8348054738693087</v>
       </c>
     </row>
   </sheetData>
